--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7554" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7553" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1290,6 +1290,9 @@
   </si>
   <si>
     <t>Rejection reason.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/claim-rejection-reasons</t>
   </si>
   <si>
     <t>ClaimResponse.item.adjudication.reason.text</t>
@@ -2703,7 +2706,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.91015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -13557,7 +13560,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>83</v>
@@ -13933,13 +13936,11 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X104" s="2"/>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13983,7 +13984,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13991,7 +13992,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>83</v>
@@ -14012,7 +14013,7 @@
         <v>228</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>230</v>
@@ -14093,7 +14094,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14116,19 +14117,19 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14177,7 +14178,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -14203,7 +14204,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14309,7 +14310,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14417,7 +14418,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14440,19 +14441,19 @@
         <v>84</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14501,7 +14502,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -14527,7 +14528,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14553,14 +14554,14 @@
         <v>103</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14588,10 +14589,10 @@
         <v>166</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>76</v>
@@ -14609,7 +14610,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14635,7 +14636,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14658,19 +14659,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14719,7 +14720,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14745,7 +14746,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14771,14 +14772,14 @@
         <v>360</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14827,7 +14828,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14853,7 +14854,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14959,7 +14960,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15067,7 +15068,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15177,7 +15178,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15203,14 +15204,14 @@
         <v>379</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15259,7 +15260,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>83</v>
@@ -15285,7 +15286,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15367,7 +15368,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -15393,7 +15394,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15419,10 +15420,10 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15473,7 +15474,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>83</v>
@@ -15499,7 +15500,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15525,14 +15526,14 @@
         <v>360</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15581,7 +15582,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -15607,7 +15608,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15713,7 +15714,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15821,7 +15822,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15931,7 +15932,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15957,14 +15958,14 @@
         <v>379</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16013,7 +16014,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>83</v>
@@ -16039,7 +16040,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16121,7 +16122,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16147,7 +16148,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16173,10 +16174,10 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16227,7 +16228,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16253,7 +16254,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16279,14 +16280,14 @@
         <v>360</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16335,7 +16336,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -16361,7 +16362,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16467,7 +16468,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16575,7 +16576,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16685,7 +16686,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16711,14 +16712,14 @@
         <v>379</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16767,7 +16768,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -16793,7 +16794,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16819,14 +16820,14 @@
         <v>379</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -16875,7 +16876,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16901,7 +16902,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16927,14 +16928,14 @@
         <v>379</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -16983,7 +16984,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -17009,7 +17010,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17032,17 +17033,17 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17091,7 +17092,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -17117,7 +17118,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17143,16 +17144,16 @@
         <v>172</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
@@ -17180,10 +17181,10 @@
         <v>291</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17201,7 +17202,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>83</v>
@@ -17227,7 +17228,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17253,16 +17254,16 @@
         <v>172</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17290,10 +17291,10 @@
         <v>291</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17311,7 +17312,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17332,12 +17333,12 @@
         <v>76</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17363,16 +17364,16 @@
         <v>172</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17400,10 +17401,10 @@
         <v>291</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17421,7 +17422,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17442,12 +17443,12 @@
         <v>76</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17470,17 +17471,17 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17529,7 +17530,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -17547,15 +17548,15 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17578,17 +17579,17 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
@@ -17616,10 +17617,10 @@
         <v>291</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17637,7 +17638,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -17655,15 +17656,15 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17686,17 +17687,17 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
@@ -17745,7 +17746,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17766,12 +17767,12 @@
         <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17794,17 +17795,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -17853,7 +17854,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17879,7 +17880,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17902,19 +17903,19 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -17963,7 +17964,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17989,7 +17990,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18012,19 +18013,19 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -18073,7 +18074,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -18094,12 +18095,12 @@
         <v>76</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18125,16 +18126,16 @@
         <v>172</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18162,10 +18163,10 @@
         <v>291</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18183,7 +18184,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18209,7 +18210,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18235,14 +18236,14 @@
         <v>172</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18270,10 +18271,10 @@
         <v>291</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18291,7 +18292,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -18317,7 +18318,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18399,7 +18400,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -18425,7 +18426,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18451,10 +18452,10 @@
         <v>76</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18505,7 +18506,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>83</v>
@@ -18531,7 +18532,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18557,10 +18558,10 @@
         <v>360</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18611,7 +18612,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -18637,7 +18638,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18743,7 +18744,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18851,7 +18852,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18961,7 +18962,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18987,16 +18988,16 @@
         <v>172</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19024,10 +19025,10 @@
         <v>291</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19045,7 +19046,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>83</v>
@@ -19071,7 +19072,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19097,16 +19098,16 @@
         <v>172</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>76</v>
@@ -19134,10 +19135,10 @@
         <v>291</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>76</v>
@@ -19155,7 +19156,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -19176,12 +19177,12 @@
         <v>76</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19204,17 +19205,17 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>76</v>
@@ -19263,7 +19264,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19284,12 +19285,12 @@
         <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19312,17 +19313,17 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -19371,7 +19372,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19397,7 +19398,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19420,19 +19421,19 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
@@ -19481,7 +19482,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -19507,7 +19508,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19530,19 +19531,19 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19591,7 +19592,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19612,12 +19613,12 @@
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19699,7 +19700,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -19725,7 +19726,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19751,10 +19752,10 @@
         <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19805,7 +19806,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>83</v>
@@ -19831,7 +19832,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19857,10 +19858,10 @@
         <v>360</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19911,7 +19912,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -19937,7 +19938,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20043,7 +20044,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20151,7 +20152,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20261,7 +20262,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20287,16 +20288,16 @@
         <v>172</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20324,10 +20325,10 @@
         <v>291</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>76</v>
@@ -20345,7 +20346,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>83</v>
@@ -20371,7 +20372,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20397,16 +20398,16 @@
         <v>172</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
@@ -20434,10 +20435,10 @@
         <v>291</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>76</v>
@@ -20455,7 +20456,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -20476,12 +20477,12 @@
         <v>76</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20504,17 +20505,17 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20563,7 +20564,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20584,12 +20585,12 @@
         <v>76</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20612,17 +20613,17 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -20671,7 +20672,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20697,7 +20698,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20720,19 +20721,19 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -20781,7 +20782,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -20807,7 +20808,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20830,19 +20831,19 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
@@ -20891,7 +20892,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -20912,12 +20913,12 @@
         <v>76</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20999,7 +21000,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
@@ -21025,7 +21026,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21051,10 +21052,10 @@
         <v>76</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21105,7 +21106,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>83</v>
@@ -21131,7 +21132,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21157,14 +21158,14 @@
         <v>76</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21213,7 +21214,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21239,7 +21240,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21265,16 +21266,16 @@
         <v>360</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21323,7 +21324,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -21349,7 +21350,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21455,7 +21456,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21563,7 +21564,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21673,7 +21674,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21702,13 +21703,13 @@
         <v>396</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>398</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>76</v>
@@ -21755,7 +21756,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>83</v>
@@ -21781,7 +21782,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21804,17 +21805,17 @@
         <v>84</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -21863,7 +21864,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>83</v>
@@ -21889,7 +21890,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21995,7 +21996,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22103,7 +22104,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22126,19 +22127,19 @@
         <v>84</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>76</v>
@@ -22187,7 +22188,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -22213,7 +22214,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22239,14 +22240,14 @@
         <v>103</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>76</v>
@@ -22274,10 +22275,10 @@
         <v>166</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>76</v>
@@ -22295,7 +22296,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>74</v>
@@ -22321,7 +22322,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22347,14 +22348,14 @@
         <v>360</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>76</v>
@@ -22403,7 +22404,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>74</v>
@@ -22429,7 +22430,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22535,7 +22536,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22643,7 +22644,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22753,7 +22754,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22779,14 +22780,14 @@
         <v>172</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>76</v>
@@ -22814,10 +22815,10 @@
         <v>291</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>76</v>
@@ -22835,7 +22836,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>83</v>
@@ -22861,7 +22862,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22884,19 +22885,19 @@
         <v>76</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>76</v>
@@ -22945,7 +22946,7 @@
         <v>76</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>74</v>
@@ -22971,7 +22972,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -22997,14 +22998,14 @@
         <v>172</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23032,10 +23033,10 @@
         <v>291</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>76</v>
@@ -23053,7 +23054,7 @@
         <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>74</v>
@@ -23079,7 +23080,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23102,17 +23103,17 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>76</v>
@@ -23161,7 +23162,7 @@
         <v>76</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -23187,7 +23188,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23210,17 +23211,17 @@
         <v>76</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>76</v>
@@ -23269,7 +23270,7 @@
         <v>76</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>83</v>
@@ -23295,7 +23296,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23321,16 +23322,16 @@
         <v>142</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>76</v>
@@ -23379,7 +23380,7 @@
         <v>76</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>74</v>
@@ -23405,7 +23406,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23431,16 +23432,16 @@
         <v>172</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>76</v>
@@ -23468,10 +23469,10 @@
         <v>291</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>76</v>
@@ -23489,7 +23490,7 @@
         <v>76</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -23515,7 +23516,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23541,16 +23542,16 @@
         <v>172</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>76</v>
@@ -23578,10 +23579,10 @@
         <v>291</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>76</v>
@@ -23599,7 +23600,7 @@
         <v>76</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>74</v>
@@ -23625,7 +23626,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23648,19 +23649,19 @@
         <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>76</v>
@@ -23709,7 +23710,7 @@
         <v>76</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -23735,7 +23736,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23743,7 +23744,7 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F195" t="s" s="2">
         <v>83</v>
@@ -23761,14 +23762,14 @@
         <v>360</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>76</v>
@@ -23817,7 +23818,7 @@
         <v>76</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23843,7 +23844,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23949,7 +23950,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24057,7 +24058,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24167,7 +24168,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24193,14 +24194,14 @@
         <v>379</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>76</v>
@@ -24249,7 +24250,7 @@
         <v>76</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -24275,7 +24276,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -24301,14 +24302,14 @@
         <v>103</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>76</v>
@@ -24336,10 +24337,10 @@
         <v>166</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>76</v>
@@ -24357,7 +24358,7 @@
         <v>76</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -24383,7 +24384,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -24409,14 +24410,14 @@
         <v>85</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>76</v>
@@ -24465,7 +24466,7 @@
         <v>76</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>83</v>
@@ -24491,7 +24492,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24517,16 +24518,16 @@
         <v>172</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>76</v>
@@ -24575,7 +24576,7 @@
         <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -24601,7 +24602,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24624,19 +24625,19 @@
         <v>76</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>76</v>
@@ -24685,7 +24686,7 @@
         <v>76</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24711,7 +24712,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24737,16 +24738,16 @@
         <v>360</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>76</v>
@@ -24795,7 +24796,7 @@
         <v>76</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>74</v>
@@ -24816,12 +24817,12 @@
         <v>76</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24927,7 +24928,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25035,7 +25036,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25145,7 +25146,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25171,14 +25172,14 @@
         <v>379</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>76</v>
@@ -25227,7 +25228,7 @@
         <v>76</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>83</v>
@@ -25253,7 +25254,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -25279,16 +25280,16 @@
         <v>220</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>76</v>
@@ -25337,7 +25338,7 @@
         <v>76</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>83</v>
@@ -25363,7 +25364,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -25386,17 +25387,17 @@
         <v>76</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>76</v>
@@ -25445,7 +25446,7 @@
         <v>76</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>83</v>
@@ -25471,7 +25472,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -25497,14 +25498,14 @@
         <v>85</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>76</v>
@@ -25553,7 +25554,7 @@
         <v>76</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>74</v>
@@ -25579,7 +25580,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -25602,19 +25603,19 @@
         <v>76</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>76</v>
@@ -25663,7 +25664,7 @@
         <v>76</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>74</v>
@@ -25689,7 +25690,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -25715,16 +25716,16 @@
         <v>360</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>76</v>
@@ -25773,7 +25774,7 @@
         <v>76</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>74</v>
@@ -25799,7 +25800,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -25905,7 +25906,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26013,7 +26014,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26123,7 +26124,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -26149,14 +26150,14 @@
         <v>379</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>76</v>
@@ -26205,7 +26206,7 @@
         <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>74</v>
@@ -26231,7 +26232,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -26257,14 +26258,14 @@
         <v>379</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>76</v>
@@ -26313,7 +26314,7 @@
         <v>76</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>74</v>
@@ -26339,7 +26340,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -26365,14 +26366,14 @@
         <v>379</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>76</v>
@@ -26421,7 +26422,7 @@
         <v>76</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>74</v>
@@ -26447,7 +26448,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -26473,14 +26474,14 @@
         <v>172</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>76</v>
@@ -26508,10 +26509,10 @@
         <v>291</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>76</v>
@@ -26529,7 +26530,7 @@
         <v>76</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>141</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -902,7 +902,7 @@
     <t>Visit type</t>
   </si>
   <si>
-    <t>Mapped to inpatient or outpatient visit type.</t>
+    <t>Mapped to Emergency, Referrals or Other visit type.</t>
   </si>
   <si>
     <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/claim-visit-type</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11618,10 +11618,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -988,6 +988,10 @@
     <t>ClaimResponse.insurer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-insurance-organization)
+</t>
+  </si>
+  <si>
     <t>Party responsible for reimbursement</t>
   </si>
   <si>
@@ -995,11 +999,6 @@
   </si>
   <si>
     <t>To be a valid claim, preauthorization or predetermination there must be a party who is responsible for adjudicating the contents against a policy which provides benefits for the patient.</t>
-  </si>
-  <si>
-    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
-  &lt;reference value="openIMIS"/&gt;
-&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -11417,17 +11416,17 @@
         <v>84</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11437,7 +11436,7 @@
         <v>76</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim-response.xlsx
+++ b/StructureDefinition-openimis-claim-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
